--- a/data/Partial Format Frame Auto.xlsx
+++ b/data/Partial Format Frame Auto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>jan_fullname</t>
   </si>
@@ -163,7 +163,7 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
+    <t>k-id</t>
   </si>
   <si>
     <t>birthday</t>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>tho</t>
   </si>
   <si>
     <t>February</t>
@@ -1052,6 +1055,11 @@
         <v>71</v>
       </c>
     </row>
+    <row r="28">
+      <c r="I28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1113,7 +1121,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
